--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2003 (G03).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2003 (G03).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,98 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Argothian Enchantress</t>
+          <t>('Argothian Enchantress', ['{1}{G}', 'Creature — Human Druid', 'Shroud (This creature can’t be the target of spells or abilities.)', 'Whenever you cast an enchantment spell, draw a card.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{G}</t>
+          <t>('Intuition', ['{2}{U}', 'Instant', 'Search your library for three cards and reveal them. Target opponent chooses one. Put that card into your hand and the rest into your graveyard. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Shroud (This creature can’t be the target of spells or abilities.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever you cast an enchantment spell, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Intuition</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Search your library for three cards and reveal them. Target opponent chooses one. Put that card into your hand and the rest into your graveyard. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Living Death</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Each player exiles all creature cards from their graveyard, then sacrifices all creatures they control, then puts all cards they exiled this way onto the battlefield.</t>
+          <t>('Living Death', ['{3}{B}{B}', 'Sorcery', 'Each player exiles all creature cards from their graveyard, then sacrifices all creatures they control, then puts all cards they exiled this way onto the battlefield.'])</t>
         </is>
       </c>
     </row>
